--- a/bubble-video/formatted_data.xlsx
+++ b/bubble-video/formatted_data.xlsx
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>413894</v>
+        <v>413.89</v>
       </c>
       <c r="E2">
         <v>-0.08033035028</v>
@@ -617,7 +617,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>640430.25</v>
+        <v>640.4299999999999</v>
       </c>
       <c r="E3">
         <v>-0.06044489581</v>
@@ -637,7 +637,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>640430.25</v>
+        <v>640.4299999999999</v>
       </c>
       <c r="E4">
         <v>-0.04055944134</v>
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>640430.25</v>
+        <v>640.4299999999999</v>
       </c>
       <c r="E5">
         <v>-0.02067398687</v>
@@ -677,7 +677,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>640430.25</v>
+        <v>640.4299999999999</v>
       </c>
       <c r="E6">
         <v>-0.0007885323968</v>
@@ -697,7 +697,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>912996.25</v>
+        <v>913</v>
       </c>
       <c r="E7">
         <v>0.006332574925</v>
@@ -717,7 +717,7 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>912996.25</v>
+        <v>913</v>
       </c>
       <c r="E8">
         <v>0.01345368225</v>
@@ -737,7 +737,7 @@
         <v>37</v>
       </c>
       <c r="D9">
-        <v>912996.25</v>
+        <v>913</v>
       </c>
       <c r="E9">
         <v>0.02057478957</v>
@@ -757,7 +757,7 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>912996.25</v>
+        <v>913</v>
       </c>
       <c r="E10">
         <v>0.02769589689</v>
@@ -2377,7 +2377,7 @@
         <v>31</v>
       </c>
       <c r="D91">
-        <v>215295</v>
+        <v>215.29</v>
       </c>
       <c r="E91">
         <v>-0.06044489581</v>
@@ -2397,7 +2397,7 @@
         <v>32</v>
       </c>
       <c r="D92">
-        <v>215295</v>
+        <v>215.29</v>
       </c>
       <c r="E92">
         <v>-0.04055944134</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="D93">
-        <v>215295</v>
+        <v>215.29</v>
       </c>
       <c r="E93">
         <v>-0.02067398687</v>
@@ -2437,7 +2437,7 @@
         <v>34</v>
       </c>
       <c r="D94">
-        <v>215295</v>
+        <v>215.29</v>
       </c>
       <c r="E94">
         <v>-0.0007885323968</v>
@@ -2457,7 +2457,7 @@
         <v>35</v>
       </c>
       <c r="D95">
-        <v>308997.5</v>
+        <v>309</v>
       </c>
       <c r="E95">
         <v>0.006332574925</v>
@@ -2477,7 +2477,7 @@
         <v>36</v>
       </c>
       <c r="D96">
-        <v>308997.5</v>
+        <v>309</v>
       </c>
       <c r="E96">
         <v>0.01345368225</v>
@@ -2497,7 +2497,7 @@
         <v>37</v>
       </c>
       <c r="D97">
-        <v>308997.5</v>
+        <v>309</v>
       </c>
       <c r="E97">
         <v>0.02057478957</v>
@@ -2517,7 +2517,7 @@
         <v>38</v>
       </c>
       <c r="D98">
-        <v>308997.5</v>
+        <v>309</v>
       </c>
       <c r="E98">
         <v>0.02769589689</v>
@@ -2537,7 +2537,7 @@
         <v>39</v>
       </c>
       <c r="D99">
-        <v>356927.5</v>
+        <v>356.93</v>
       </c>
       <c r="E99">
         <v>-0.5</v>
@@ -2557,7 +2557,7 @@
         <v>40</v>
       </c>
       <c r="D100">
-        <v>356927.5</v>
+        <v>356.93</v>
       </c>
       <c r="E100">
         <v>-0.5</v>
@@ -2577,7 +2577,7 @@
         <v>41</v>
       </c>
       <c r="D101">
-        <v>356927.5</v>
+        <v>356.93</v>
       </c>
       <c r="E101">
         <v>-0.5</v>
@@ -2597,7 +2597,7 @@
         <v>42</v>
       </c>
       <c r="D102">
-        <v>356927.5</v>
+        <v>356.93</v>
       </c>
       <c r="E102">
         <v>-0.5</v>
@@ -2617,7 +2617,7 @@
         <v>43</v>
       </c>
       <c r="D103">
-        <v>137360.25</v>
+        <v>137.36</v>
       </c>
       <c r="E103">
         <v>-0.5</v>
@@ -2637,7 +2637,7 @@
         <v>44</v>
       </c>
       <c r="D104">
-        <v>137360.25</v>
+        <v>137.36</v>
       </c>
       <c r="E104">
         <v>-0.5</v>
@@ -2657,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="D105">
-        <v>137360.25</v>
+        <v>137.36</v>
       </c>
       <c r="E105">
         <v>-0.5</v>
@@ -2677,7 +2677,7 @@
         <v>46</v>
       </c>
       <c r="D106">
-        <v>137360.25</v>
+        <v>137.36</v>
       </c>
       <c r="E106">
         <v>-0.5</v>
@@ -2697,7 +2697,7 @@
         <v>47</v>
       </c>
       <c r="D107">
-        <v>194090.5</v>
+        <v>194.09</v>
       </c>
       <c r="E107">
         <v>-0.5</v>
@@ -2717,7 +2717,7 @@
         <v>48</v>
       </c>
       <c r="D108">
-        <v>194090.5</v>
+        <v>194.09</v>
       </c>
       <c r="E108">
         <v>-0.5</v>
@@ -2737,7 +2737,7 @@
         <v>49</v>
       </c>
       <c r="D109">
-        <v>194090.5</v>
+        <v>194.09</v>
       </c>
       <c r="E109">
         <v>-0.5</v>
@@ -2757,7 +2757,7 @@
         <v>50</v>
       </c>
       <c r="D110">
-        <v>194090.5</v>
+        <v>194.09</v>
       </c>
       <c r="E110">
         <v>-0.2324915047</v>
@@ -2777,7 +2777,7 @@
         <v>51</v>
       </c>
       <c r="D111">
-        <v>66020.25</v>
+        <v>66.02</v>
       </c>
       <c r="E111">
         <v>0.09480075239000001</v>
@@ -2797,7 +2797,7 @@
         <v>52</v>
       </c>
       <c r="D112">
-        <v>66020.25</v>
+        <v>66.02</v>
       </c>
       <c r="E112">
         <v>0.1509897764</v>
@@ -2817,7 +2817,7 @@
         <v>53</v>
       </c>
       <c r="D113">
-        <v>66020.25</v>
+        <v>66.02</v>
       </c>
       <c r="E113">
         <v>0.1660293982</v>
@@ -2837,7 +2837,7 @@
         <v>54</v>
       </c>
       <c r="D114">
-        <v>66020.25</v>
+        <v>66.02</v>
       </c>
       <c r="E114">
         <v>0.1994610571</v>
@@ -2857,7 +2857,7 @@
         <v>55</v>
       </c>
       <c r="D115">
-        <v>78524</v>
+        <v>78.52</v>
       </c>
       <c r="E115">
         <v>0.2186775296</v>
@@ -2877,7 +2877,7 @@
         <v>56</v>
       </c>
       <c r="D116">
-        <v>78524</v>
+        <v>78.52</v>
       </c>
       <c r="E116">
         <v>0.241193527</v>
@@ -2897,7 +2897,7 @@
         <v>57</v>
       </c>
       <c r="D117">
-        <v>78524</v>
+        <v>78.52</v>
       </c>
       <c r="E117">
         <v>0.2546926872</v>
@@ -2917,7 +2917,7 @@
         <v>58</v>
       </c>
       <c r="D118">
-        <v>78524</v>
+        <v>78.52</v>
       </c>
       <c r="E118">
         <v>0.1663076025</v>
@@ -3577,7 +3577,7 @@
         <v>30</v>
       </c>
       <c r="D151">
-        <v>130046.25</v>
+        <v>130.05</v>
       </c>
       <c r="E151">
         <v>-0.08033035028</v>
@@ -3597,7 +3597,7 @@
         <v>31</v>
       </c>
       <c r="D152">
-        <v>130046.25</v>
+        <v>130.05</v>
       </c>
       <c r="E152">
         <v>-0.06044489581</v>
@@ -4897,7 +4897,7 @@
         <v>30</v>
       </c>
       <c r="D217">
-        <v>77603.75</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E217">
         <v>-0.08033035028</v>
@@ -4917,7 +4917,7 @@
         <v>31</v>
       </c>
       <c r="D218">
-        <v>77603.75</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E218">
         <v>-0.06044489581</v>
@@ -4937,7 +4937,7 @@
         <v>32</v>
       </c>
       <c r="D219">
-        <v>83272.25</v>
+        <v>83.27</v>
       </c>
       <c r="E219">
         <v>-0.04055944134</v>
@@ -4957,7 +4957,7 @@
         <v>33</v>
       </c>
       <c r="D220">
-        <v>83272.25</v>
+        <v>83.27</v>
       </c>
       <c r="E220">
         <v>-0.02067398687</v>
@@ -4977,7 +4977,7 @@
         <v>34</v>
       </c>
       <c r="D221">
-        <v>83272.25</v>
+        <v>83.27</v>
       </c>
       <c r="E221">
         <v>-0.0007885323968</v>
@@ -4997,7 +4997,7 @@
         <v>35</v>
       </c>
       <c r="D222">
-        <v>83272.25</v>
+        <v>83.27</v>
       </c>
       <c r="E222">
         <v>0.006332574925</v>
@@ -5017,7 +5017,7 @@
         <v>36</v>
       </c>
       <c r="D223">
-        <v>98029</v>
+        <v>98.03</v>
       </c>
       <c r="E223">
         <v>0.01345368225</v>
@@ -5037,7 +5037,7 @@
         <v>37</v>
       </c>
       <c r="D224">
-        <v>98029</v>
+        <v>98.03</v>
       </c>
       <c r="E224">
         <v>0.02057478957</v>
@@ -5057,7 +5057,7 @@
         <v>38</v>
       </c>
       <c r="D225">
-        <v>98029</v>
+        <v>98.03</v>
       </c>
       <c r="E225">
         <v>0.02769589689</v>
@@ -5077,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="D226">
-        <v>98029</v>
+        <v>98.03</v>
       </c>
       <c r="E226">
         <v>-0.5</v>
@@ -5097,7 +5097,7 @@
         <v>40</v>
       </c>
       <c r="D227">
-        <v>32231.5</v>
+        <v>32.23</v>
       </c>
       <c r="E227">
         <v>-0.5</v>
@@ -5117,7 +5117,7 @@
         <v>41</v>
       </c>
       <c r="D228">
-        <v>32231.5</v>
+        <v>32.23</v>
       </c>
       <c r="E228">
         <v>-0.5</v>
@@ -5137,7 +5137,7 @@
         <v>42</v>
       </c>
       <c r="D229">
-        <v>32231.5</v>
+        <v>32.23</v>
       </c>
       <c r="E229">
         <v>-0.5</v>
@@ -5157,7 +5157,7 @@
         <v>43</v>
       </c>
       <c r="D230">
-        <v>32231.5</v>
+        <v>32.23</v>
       </c>
       <c r="E230">
         <v>-0.5</v>
@@ -5177,7 +5177,7 @@
         <v>44</v>
       </c>
       <c r="D231">
-        <v>46606</v>
+        <v>46.61</v>
       </c>
       <c r="E231">
         <v>-0.5</v>
@@ -5197,7 +5197,7 @@
         <v>45</v>
       </c>
       <c r="D232">
-        <v>46606</v>
+        <v>46.61</v>
       </c>
       <c r="E232">
         <v>-0.5</v>
@@ -5217,7 +5217,7 @@
         <v>46</v>
       </c>
       <c r="D233">
-        <v>46606</v>
+        <v>46.61</v>
       </c>
       <c r="E233">
         <v>-0.5</v>
@@ -5237,7 +5237,7 @@
         <v>47</v>
       </c>
       <c r="D234">
-        <v>46606</v>
+        <v>46.61</v>
       </c>
       <c r="E234">
         <v>-0.5</v>
@@ -5257,7 +5257,7 @@
         <v>48</v>
       </c>
       <c r="D235">
-        <v>82029.5</v>
+        <v>82.03</v>
       </c>
       <c r="E235">
         <v>-0.5</v>
@@ -5277,7 +5277,7 @@
         <v>49</v>
       </c>
       <c r="D236">
-        <v>82029.5</v>
+        <v>82.03</v>
       </c>
       <c r="E236">
         <v>-0.5</v>
@@ -5297,7 +5297,7 @@
         <v>50</v>
       </c>
       <c r="D237">
-        <v>82029.5</v>
+        <v>82.03</v>
       </c>
       <c r="E237">
         <v>-0.2324915047</v>
@@ -5317,7 +5317,7 @@
         <v>51</v>
       </c>
       <c r="D238">
-        <v>82029.5</v>
+        <v>82.03</v>
       </c>
       <c r="E238">
         <v>0.09480075239000001</v>
@@ -5557,7 +5557,7 @@
         <v>30</v>
       </c>
       <c r="D250">
-        <v>48698.38965</v>
+        <v>48.7</v>
       </c>
       <c r="E250">
         <v>-0.08033035028</v>
@@ -5577,7 +5577,7 @@
         <v>31</v>
       </c>
       <c r="D251">
-        <v>72355.09586</v>
+        <v>72.36</v>
       </c>
       <c r="E251">
         <v>-0.06044489581</v>
@@ -5597,7 +5597,7 @@
         <v>32</v>
       </c>
       <c r="D252">
-        <v>72355.09586</v>
+        <v>72.36</v>
       </c>
       <c r="E252">
         <v>-0.04055944134</v>
@@ -5617,7 +5617,7 @@
         <v>33</v>
       </c>
       <c r="D253">
-        <v>72355.09586</v>
+        <v>72.36</v>
       </c>
       <c r="E253">
         <v>-0.02067398687</v>
@@ -5637,7 +5637,7 @@
         <v>34</v>
       </c>
       <c r="D254">
-        <v>72355.09586</v>
+        <v>72.36</v>
       </c>
       <c r="E254">
         <v>-0.0007885323968</v>
@@ -5657,7 +5657,7 @@
         <v>35</v>
       </c>
       <c r="D255">
-        <v>82990.80089</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E255">
         <v>0.006332574925</v>
@@ -5677,7 +5677,7 @@
         <v>36</v>
       </c>
       <c r="D256">
-        <v>82990.80089</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E256">
         <v>0.01345368225</v>
@@ -5697,7 +5697,7 @@
         <v>37</v>
       </c>
       <c r="D257">
-        <v>82990.80089</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E257">
         <v>0.02057478957</v>
@@ -5717,7 +5717,7 @@
         <v>38</v>
       </c>
       <c r="D258">
-        <v>82990.80089</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E258">
         <v>0.02769589689</v>
@@ -5737,7 +5737,7 @@
         <v>39</v>
       </c>
       <c r="D259">
-        <v>102150.2214</v>
+        <v>102.15</v>
       </c>
       <c r="E259">
         <v>-0.5</v>
@@ -5757,7 +5757,7 @@
         <v>40</v>
       </c>
       <c r="D260">
-        <v>102150.2214</v>
+        <v>102.15</v>
       </c>
       <c r="E260">
         <v>-0.5</v>
@@ -5777,7 +5777,7 @@
         <v>41</v>
       </c>
       <c r="D261">
-        <v>102150.2214</v>
+        <v>102.15</v>
       </c>
       <c r="E261">
         <v>-0.5</v>
@@ -5797,7 +5797,7 @@
         <v>42</v>
       </c>
       <c r="D262">
-        <v>102150.2214</v>
+        <v>102.15</v>
       </c>
       <c r="E262">
         <v>-0.5</v>
@@ -5817,7 +5817,7 @@
         <v>43</v>
       </c>
       <c r="D263">
-        <v>34439.746</v>
+        <v>34.44</v>
       </c>
       <c r="E263">
         <v>-0.5</v>
@@ -5837,7 +5837,7 @@
         <v>44</v>
       </c>
       <c r="D264">
-        <v>34439.746</v>
+        <v>34.44</v>
       </c>
       <c r="E264">
         <v>-0.5</v>
@@ -5857,7 +5857,7 @@
         <v>45</v>
       </c>
       <c r="D265">
-        <v>34439.746</v>
+        <v>34.44</v>
       </c>
       <c r="E265">
         <v>-0.5</v>
@@ -5877,7 +5877,7 @@
         <v>46</v>
       </c>
       <c r="D266">
-        <v>34439.746</v>
+        <v>34.44</v>
       </c>
       <c r="E266">
         <v>-0.5</v>
@@ -5897,7 +5897,7 @@
         <v>47</v>
       </c>
       <c r="D267">
-        <v>38294.2887</v>
+        <v>38.29</v>
       </c>
       <c r="E267">
         <v>-0.5</v>
@@ -5917,7 +5917,7 @@
         <v>48</v>
       </c>
       <c r="D268">
-        <v>38294.2887</v>
+        <v>38.29</v>
       </c>
       <c r="E268">
         <v>-0.5</v>
@@ -5937,7 +5937,7 @@
         <v>49</v>
       </c>
       <c r="D269">
-        <v>38294.2887</v>
+        <v>38.29</v>
       </c>
       <c r="E269">
         <v>-0.5</v>
@@ -5957,7 +5957,7 @@
         <v>50</v>
       </c>
       <c r="D270">
-        <v>38294.2887</v>
+        <v>38.29</v>
       </c>
       <c r="E270">
         <v>-0.2324915047</v>
@@ -5977,7 +5977,7 @@
         <v>51</v>
       </c>
       <c r="D271">
-        <v>85651.12149999999</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E271">
         <v>0.09480075239000001</v>
@@ -5997,7 +5997,7 @@
         <v>52</v>
       </c>
       <c r="D272">
-        <v>85651.12149999999</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E272">
         <v>0.1509897764</v>
@@ -6017,7 +6017,7 @@
         <v>53</v>
       </c>
       <c r="D273">
-        <v>85651.12149999999</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E273">
         <v>0.1660293982</v>
@@ -6037,7 +6037,7 @@
         <v>54</v>
       </c>
       <c r="D274">
-        <v>85651.12149999999</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E274">
         <v>0.1994610571</v>
@@ -6057,7 +6057,7 @@
         <v>55</v>
       </c>
       <c r="D275">
-        <v>109197.5</v>
+        <v>109.2</v>
       </c>
       <c r="E275">
         <v>0.2186775296</v>
@@ -6077,7 +6077,7 @@
         <v>56</v>
       </c>
       <c r="D276">
-        <v>109197.5</v>
+        <v>109.2</v>
       </c>
       <c r="E276">
         <v>0.241193527</v>
@@ -6097,7 +6097,7 @@
         <v>57</v>
       </c>
       <c r="D277">
-        <v>109197.5</v>
+        <v>109.2</v>
       </c>
       <c r="E277">
         <v>0.2546926872</v>
@@ -6117,7 +6117,7 @@
         <v>58</v>
       </c>
       <c r="D278">
-        <v>109197.5</v>
+        <v>109.2</v>
       </c>
       <c r="E278">
         <v>0.1663076025</v>
@@ -6837,7 +6837,7 @@
         <v>48</v>
       </c>
       <c r="D314">
-        <v>12553.25</v>
+        <v>12.55</v>
       </c>
       <c r="E314">
         <v>-0.5</v>
@@ -6857,7 +6857,7 @@
         <v>49</v>
       </c>
       <c r="D315">
-        <v>12553.25</v>
+        <v>12.55</v>
       </c>
       <c r="E315">
         <v>-0.5</v>
@@ -6877,7 +6877,7 @@
         <v>50</v>
       </c>
       <c r="D316">
-        <v>12553.25</v>
+        <v>12.55</v>
       </c>
       <c r="E316">
         <v>-0.2324915047</v>
@@ -6897,7 +6897,7 @@
         <v>51</v>
       </c>
       <c r="D317">
-        <v>12553.25</v>
+        <v>12.55</v>
       </c>
       <c r="E317">
         <v>0.09480075239000001</v>
@@ -6917,7 +6917,7 @@
         <v>52</v>
       </c>
       <c r="D318">
-        <v>15251.75</v>
+        <v>15.25</v>
       </c>
       <c r="E318">
         <v>0.1509897764</v>
@@ -6937,7 +6937,7 @@
         <v>53</v>
       </c>
       <c r="D319">
-        <v>15251.75</v>
+        <v>15.25</v>
       </c>
       <c r="E319">
         <v>0.1660293982</v>
@@ -6957,7 +6957,7 @@
         <v>54</v>
       </c>
       <c r="D320">
-        <v>15251.75</v>
+        <v>15.25</v>
       </c>
       <c r="E320">
         <v>0.1994610571</v>
@@ -6977,7 +6977,7 @@
         <v>55</v>
       </c>
       <c r="D321">
-        <v>15251.75</v>
+        <v>15.25</v>
       </c>
       <c r="E321">
         <v>0.2186775296</v>
@@ -6997,7 +6997,7 @@
         <v>56</v>
       </c>
       <c r="D322">
-        <v>19943</v>
+        <v>19.94</v>
       </c>
       <c r="E322">
         <v>0.241193527</v>
@@ -7017,7 +7017,7 @@
         <v>57</v>
       </c>
       <c r="D323">
-        <v>19943</v>
+        <v>19.94</v>
       </c>
       <c r="E323">
         <v>0.2546926872</v>
@@ -7037,7 +7037,7 @@
         <v>58</v>
       </c>
       <c r="D324">
-        <v>19943</v>
+        <v>19.94</v>
       </c>
       <c r="E324">
         <v>0.1663076025</v>
@@ -7057,7 +7057,7 @@
         <v>59</v>
       </c>
       <c r="D325">
-        <v>19763.88235</v>
+        <v>19.76</v>
       </c>
       <c r="E325">
         <v>0.182627827</v>
@@ -7077,7 +7077,7 @@
         <v>60</v>
       </c>
       <c r="D326">
-        <v>21680</v>
+        <v>21.68</v>
       </c>
       <c r="E326">
         <v>0.1765465487</v>
@@ -7097,7 +7097,7 @@
         <v>61</v>
       </c>
       <c r="D327">
-        <v>24808.82353</v>
+        <v>24.81</v>
       </c>
       <c r="E327">
         <v>0.169206183</v>
@@ -7117,7 +7117,7 @@
         <v>62</v>
       </c>
       <c r="D328">
-        <v>29057.88235</v>
+        <v>29.06</v>
       </c>
       <c r="E328">
         <v>0.275077318</v>
@@ -7157,7 +7157,7 @@
         <v>31</v>
       </c>
       <c r="D330">
-        <v>12384</v>
+        <v>12.38</v>
       </c>
       <c r="E330">
         <v>-0.06044489581</v>
@@ -7177,7 +7177,7 @@
         <v>32</v>
       </c>
       <c r="D331">
-        <v>12384</v>
+        <v>12.38</v>
       </c>
       <c r="E331">
         <v>-0.04055944134</v>
@@ -7197,7 +7197,7 @@
         <v>33</v>
       </c>
       <c r="D332">
-        <v>12384</v>
+        <v>12.38</v>
       </c>
       <c r="E332">
         <v>-0.02067398687</v>
@@ -7217,7 +7217,7 @@
         <v>34</v>
       </c>
       <c r="D333">
-        <v>12384</v>
+        <v>12.38</v>
       </c>
       <c r="E333">
         <v>-0.0007885323968</v>
@@ -7237,7 +7237,7 @@
         <v>35</v>
       </c>
       <c r="D334">
-        <v>16488.25</v>
+        <v>16.49</v>
       </c>
       <c r="E334">
         <v>0.006332574925</v>
@@ -7257,7 +7257,7 @@
         <v>36</v>
       </c>
       <c r="D335">
-        <v>16488.25</v>
+        <v>16.49</v>
       </c>
       <c r="E335">
         <v>0.01345368225</v>
@@ -7277,7 +7277,7 @@
         <v>37</v>
       </c>
       <c r="D336">
-        <v>16488.25</v>
+        <v>16.49</v>
       </c>
       <c r="E336">
         <v>0.02057478957</v>
@@ -7297,7 +7297,7 @@
         <v>38</v>
       </c>
       <c r="D337">
-        <v>16488.25</v>
+        <v>16.49</v>
       </c>
       <c r="E337">
         <v>0.02769589689</v>
@@ -7317,7 +7317,7 @@
         <v>39</v>
       </c>
       <c r="D338">
-        <v>24060.5</v>
+        <v>24.06</v>
       </c>
       <c r="E338">
         <v>-0.5</v>
@@ -7337,7 +7337,7 @@
         <v>40</v>
       </c>
       <c r="D339">
-        <v>24060.5</v>
+        <v>24.06</v>
       </c>
       <c r="E339">
         <v>-0.5</v>
@@ -7357,7 +7357,7 @@
         <v>41</v>
       </c>
       <c r="D340">
-        <v>24060.5</v>
+        <v>24.06</v>
       </c>
       <c r="E340">
         <v>-0.5</v>
@@ -7377,7 +7377,7 @@
         <v>42</v>
       </c>
       <c r="D341">
-        <v>24060.5</v>
+        <v>24.06</v>
       </c>
       <c r="E341">
         <v>-0.5</v>
@@ -7477,7 +7477,7 @@
         <v>47</v>
       </c>
       <c r="D346">
-        <v>12928.5</v>
+        <v>12.93</v>
       </c>
       <c r="E346">
         <v>-0.5</v>
@@ -7497,7 +7497,7 @@
         <v>48</v>
       </c>
       <c r="D347">
-        <v>12928.5</v>
+        <v>12.93</v>
       </c>
       <c r="E347">
         <v>-0.5</v>
@@ -7517,7 +7517,7 @@
         <v>49</v>
       </c>
       <c r="D348">
-        <v>12928.5</v>
+        <v>12.93</v>
       </c>
       <c r="E348">
         <v>-0.5</v>
@@ -7537,7 +7537,7 @@
         <v>50</v>
       </c>
       <c r="D349">
-        <v>12928.5</v>
+        <v>12.93</v>
       </c>
       <c r="E349">
         <v>-0.2324915047</v>
@@ -7557,7 +7557,7 @@
         <v>51</v>
       </c>
       <c r="D350">
-        <v>28811.75</v>
+        <v>28.81</v>
       </c>
       <c r="E350">
         <v>0.09480075239000001</v>
@@ -7577,7 +7577,7 @@
         <v>52</v>
       </c>
       <c r="D351">
-        <v>28811.75</v>
+        <v>28.81</v>
       </c>
       <c r="E351">
         <v>0.1509897764</v>
@@ -7597,7 +7597,7 @@
         <v>53</v>
       </c>
       <c r="D352">
-        <v>28811.75</v>
+        <v>28.81</v>
       </c>
       <c r="E352">
         <v>0.1660293982</v>
@@ -7617,7 +7617,7 @@
         <v>54</v>
       </c>
       <c r="D353">
-        <v>28811.75</v>
+        <v>28.81</v>
       </c>
       <c r="E353">
         <v>0.1994610571</v>
@@ -7637,7 +7637,7 @@
         <v>55</v>
       </c>
       <c r="D354">
-        <v>51823.75</v>
+        <v>51.82</v>
       </c>
       <c r="E354">
         <v>0.2186775296</v>
@@ -7657,7 +7657,7 @@
         <v>56</v>
       </c>
       <c r="D355">
-        <v>51823.75</v>
+        <v>51.82</v>
       </c>
       <c r="E355">
         <v>0.241193527</v>
@@ -7677,7 +7677,7 @@
         <v>57</v>
       </c>
       <c r="D356">
-        <v>51823.75</v>
+        <v>51.82</v>
       </c>
       <c r="E356">
         <v>0.2546926872</v>
@@ -7697,7 +7697,7 @@
         <v>58</v>
       </c>
       <c r="D357">
-        <v>51823.75</v>
+        <v>51.82</v>
       </c>
       <c r="E357">
         <v>0.1663076025</v>
@@ -9677,7 +9677,7 @@
         <v>30</v>
       </c>
       <c r="D456">
-        <v>489524</v>
+        <v>489.52</v>
       </c>
       <c r="E456">
         <v>-0.08033035028</v>
@@ -9697,7 +9697,7 @@
         <v>31</v>
       </c>
       <c r="D457">
-        <v>509196.75</v>
+        <v>509.2</v>
       </c>
       <c r="E457">
         <v>-0.06044489581</v>
@@ -9717,7 +9717,7 @@
         <v>32</v>
       </c>
       <c r="D458">
-        <v>509196.75</v>
+        <v>509.2</v>
       </c>
       <c r="E458">
         <v>-0.04055944134</v>
@@ -9737,7 +9737,7 @@
         <v>33</v>
       </c>
       <c r="D459">
-        <v>509196.75</v>
+        <v>509.2</v>
       </c>
       <c r="E459">
         <v>-0.02067398687</v>
@@ -9757,7 +9757,7 @@
         <v>34</v>
       </c>
       <c r="D460">
-        <v>509196.75</v>
+        <v>509.2</v>
       </c>
       <c r="E460">
         <v>-0.0007885323968</v>
@@ -9777,7 +9777,7 @@
         <v>35</v>
       </c>
       <c r="D461">
-        <v>540590</v>
+        <v>540.59</v>
       </c>
       <c r="E461">
         <v>0.006332574925</v>
@@ -9797,7 +9797,7 @@
         <v>36</v>
       </c>
       <c r="D462">
-        <v>540590</v>
+        <v>540.59</v>
       </c>
       <c r="E462">
         <v>0.01345368225</v>
@@ -9817,7 +9817,7 @@
         <v>37</v>
       </c>
       <c r="D463">
-        <v>540590</v>
+        <v>540.59</v>
       </c>
       <c r="E463">
         <v>0.02057478957</v>
@@ -9837,7 +9837,7 @@
         <v>38</v>
       </c>
       <c r="D464">
-        <v>540590</v>
+        <v>540.59</v>
       </c>
       <c r="E464">
         <v>0.02769589689</v>
@@ -9857,7 +9857,7 @@
         <v>39</v>
       </c>
       <c r="D465">
-        <v>532422</v>
+        <v>532.42</v>
       </c>
       <c r="E465">
         <v>-0.5</v>
@@ -9877,7 +9877,7 @@
         <v>40</v>
       </c>
       <c r="D466">
-        <v>532422</v>
+        <v>532.42</v>
       </c>
       <c r="E466">
         <v>-0.5</v>
@@ -9897,7 +9897,7 @@
         <v>41</v>
       </c>
       <c r="D467">
-        <v>532422</v>
+        <v>532.42</v>
       </c>
       <c r="E467">
         <v>-0.5</v>
@@ -9917,7 +9917,7 @@
         <v>42</v>
       </c>
       <c r="D468">
-        <v>532422</v>
+        <v>532.42</v>
       </c>
       <c r="E468">
         <v>-0.5</v>
@@ -9937,7 +9937,7 @@
         <v>43</v>
       </c>
       <c r="D469">
-        <v>350714.75</v>
+        <v>350.71</v>
       </c>
       <c r="E469">
         <v>-0.5</v>
@@ -9957,7 +9957,7 @@
         <v>44</v>
       </c>
       <c r="D470">
-        <v>350714.75</v>
+        <v>350.71</v>
       </c>
       <c r="E470">
         <v>-0.5</v>
@@ -9977,7 +9977,7 @@
         <v>45</v>
       </c>
       <c r="D471">
-        <v>350714.75</v>
+        <v>350.71</v>
       </c>
       <c r="E471">
         <v>-0.5</v>
@@ -9997,7 +9997,7 @@
         <v>46</v>
       </c>
       <c r="D472">
-        <v>350714.75</v>
+        <v>350.71</v>
       </c>
       <c r="E472">
         <v>-0.5</v>
@@ -10017,7 +10017,7 @@
         <v>47</v>
       </c>
       <c r="D473">
-        <v>118636.5</v>
+        <v>118.64</v>
       </c>
       <c r="E473">
         <v>-0.5</v>
@@ -10037,7 +10037,7 @@
         <v>48</v>
       </c>
       <c r="D474">
-        <v>118636.5</v>
+        <v>118.64</v>
       </c>
       <c r="E474">
         <v>-0.5</v>
@@ -10057,7 +10057,7 @@
         <v>49</v>
       </c>
       <c r="D475">
-        <v>118636.5</v>
+        <v>118.64</v>
       </c>
       <c r="E475">
         <v>-0.5</v>
@@ -10077,7 +10077,7 @@
         <v>50</v>
       </c>
       <c r="D476">
-        <v>118636.5</v>
+        <v>118.64</v>
       </c>
       <c r="E476">
         <v>-0.2324915047</v>
@@ -10097,7 +10097,7 @@
         <v>51</v>
       </c>
       <c r="D477">
-        <v>180008.5</v>
+        <v>180.01</v>
       </c>
       <c r="E477">
         <v>0.09480075239000001</v>
@@ -10117,7 +10117,7 @@
         <v>52</v>
       </c>
       <c r="D478">
-        <v>180008.5</v>
+        <v>180.01</v>
       </c>
       <c r="E478">
         <v>0.1509897764</v>
@@ -10137,7 +10137,7 @@
         <v>53</v>
       </c>
       <c r="D479">
-        <v>180008.5</v>
+        <v>180.01</v>
       </c>
       <c r="E479">
         <v>0.1660293982</v>
@@ -10157,7 +10157,7 @@
         <v>54</v>
       </c>
       <c r="D480">
-        <v>180008.5</v>
+        <v>180.01</v>
       </c>
       <c r="E480">
         <v>0.1994610571</v>
@@ -10177,7 +10177,7 @@
         <v>55</v>
       </c>
       <c r="D481">
-        <v>378176.25</v>
+        <v>378.18</v>
       </c>
       <c r="E481">
         <v>0.2186775296</v>
@@ -10197,7 +10197,7 @@
         <v>56</v>
       </c>
       <c r="D482">
-        <v>378176.25</v>
+        <v>378.18</v>
       </c>
       <c r="E482">
         <v>0.241193527</v>
@@ -10217,7 +10217,7 @@
         <v>57</v>
       </c>
       <c r="D483">
-        <v>378176.25</v>
+        <v>378.18</v>
       </c>
       <c r="E483">
         <v>0.2546926872</v>
@@ -10237,7 +10237,7 @@
         <v>58</v>
       </c>
       <c r="D484">
-        <v>378176.25</v>
+        <v>378.18</v>
       </c>
       <c r="E484">
         <v>0.1663076025</v>
@@ -12257,7 +12257,7 @@
         <v>31</v>
       </c>
       <c r="D585">
-        <v>12071.5</v>
+        <v>12.07</v>
       </c>
       <c r="E585">
         <v>-0.06044489581</v>
@@ -12277,7 +12277,7 @@
         <v>32</v>
       </c>
       <c r="D586">
-        <v>12071.5</v>
+        <v>12.07</v>
       </c>
       <c r="E586">
         <v>-0.04055944134</v>
@@ -12297,7 +12297,7 @@
         <v>33</v>
       </c>
       <c r="D587">
-        <v>12071.5</v>
+        <v>12.07</v>
       </c>
       <c r="E587">
         <v>-0.02067398687</v>
@@ -12317,7 +12317,7 @@
         <v>34</v>
       </c>
       <c r="D588">
-        <v>12071.5</v>
+        <v>12.07</v>
       </c>
       <c r="E588">
         <v>-0.0007885323968</v>
@@ -12337,7 +12337,7 @@
         <v>35</v>
       </c>
       <c r="D589">
-        <v>11662.5</v>
+        <v>11.66</v>
       </c>
       <c r="E589">
         <v>0.006332574925</v>
@@ -12357,7 +12357,7 @@
         <v>36</v>
       </c>
       <c r="D590">
-        <v>11662.5</v>
+        <v>11.66</v>
       </c>
       <c r="E590">
         <v>0.01345368225</v>
@@ -12377,7 +12377,7 @@
         <v>37</v>
       </c>
       <c r="D591">
-        <v>11662.5</v>
+        <v>11.66</v>
       </c>
       <c r="E591">
         <v>0.02057478957</v>
@@ -12397,7 +12397,7 @@
         <v>38</v>
       </c>
       <c r="D592">
-        <v>11662.5</v>
+        <v>11.66</v>
       </c>
       <c r="E592">
         <v>0.02769589689</v>
@@ -12417,7 +12417,7 @@
         <v>39</v>
       </c>
       <c r="D593">
-        <v>10254.25</v>
+        <v>10.25</v>
       </c>
       <c r="E593">
         <v>-0.5</v>
@@ -12437,7 +12437,7 @@
         <v>40</v>
       </c>
       <c r="D594">
-        <v>10254.25</v>
+        <v>10.25</v>
       </c>
       <c r="E594">
         <v>-0.5</v>
@@ -12457,7 +12457,7 @@
         <v>41</v>
       </c>
       <c r="D595">
-        <v>10254.25</v>
+        <v>10.25</v>
       </c>
       <c r="E595">
         <v>-0.5</v>
@@ -12477,7 +12477,7 @@
         <v>42</v>
       </c>
       <c r="D596">
-        <v>10254.25</v>
+        <v>10.25</v>
       </c>
       <c r="E596">
         <v>-0.5</v>
@@ -12817,7 +12817,7 @@
         <v>30</v>
       </c>
       <c r="D613">
-        <v>39747.75</v>
+        <v>39.75</v>
       </c>
       <c r="E613">
         <v>-0.08033035028</v>
@@ -12837,7 +12837,7 @@
         <v>31</v>
       </c>
       <c r="D614">
-        <v>39747.75</v>
+        <v>39.75</v>
       </c>
       <c r="E614">
         <v>-0.06044489581</v>
@@ -12857,7 +12857,7 @@
         <v>32</v>
       </c>
       <c r="D615">
-        <v>39747.75</v>
+        <v>39.75</v>
       </c>
       <c r="E615">
         <v>-0.04055944134</v>
@@ -12877,7 +12877,7 @@
         <v>33</v>
       </c>
       <c r="D616">
-        <v>140685</v>
+        <v>140.69</v>
       </c>
       <c r="E616">
         <v>-0.02067398687</v>
@@ -12897,7 +12897,7 @@
         <v>34</v>
       </c>
       <c r="D617">
-        <v>140685</v>
+        <v>140.69</v>
       </c>
       <c r="E617">
         <v>-0.0007885323968</v>
@@ -12917,7 +12917,7 @@
         <v>35</v>
       </c>
       <c r="D618">
-        <v>140685</v>
+        <v>140.69</v>
       </c>
       <c r="E618">
         <v>0.006332574925</v>
@@ -12937,7 +12937,7 @@
         <v>36</v>
       </c>
       <c r="D619">
-        <v>140685</v>
+        <v>140.69</v>
       </c>
       <c r="E619">
         <v>0.01345368225</v>

--- a/bubble-video/formatted_data.xlsx
+++ b/bubble-video/formatted_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/Files/000_Archive/TravelMarketViz/bubble-video/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FFC65FC0D0E169F172170B557353052D6C88EFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83978593-D60C-A242-B67F-315192011F8B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_FFC65FC0D0E169F172170B557353052D6C88EFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96387D43-75A6-B04F-9E9A-189E0DF67BAC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,6 +535,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4174,7 +4178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -4191,7 +4195,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -4342,7 +4346,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -4502,7 +4506,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -4542,7 +4546,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -4582,7 +4586,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -18318,7 +18322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>22</v>
       </c>
@@ -18332,7 +18336,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>22</v>
       </c>
@@ -18346,7 +18350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>22</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>22</v>
       </c>
@@ -18374,7 +18378,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>22</v>
       </c>
@@ -18394,7 +18398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>22</v>
       </c>
@@ -18414,7 +18418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>22</v>
       </c>
@@ -18434,7 +18438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>22</v>
       </c>
@@ -18454,7 +18458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>22</v>
       </c>
@@ -18474,7 +18478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>22</v>
       </c>
@@ -18494,7 +18498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>22</v>
       </c>
@@ -18514,7 +18518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>22</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>22</v>
       </c>
@@ -18554,7 +18558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>22</v>
       </c>
@@ -18574,7 +18578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>22</v>
       </c>
@@ -18594,7 +18598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>22</v>
       </c>
@@ -18614,7 +18618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>22</v>
       </c>
@@ -18634,7 +18638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>22</v>
       </c>
@@ -18654,7 +18658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="925" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>22</v>
       </c>
@@ -18674,7 +18678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>22</v>
       </c>
@@ -18694,7 +18698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>22</v>
       </c>
@@ -18714,7 +18718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="928" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>22</v>
       </c>
@@ -18734,7 +18738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>22</v>
       </c>
@@ -18754,7 +18758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>22</v>
       </c>
@@ -18774,7 +18778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>22</v>
       </c>
@@ -18794,7 +18798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="932" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>22</v>
       </c>
@@ -18814,7 +18818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="933" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>22</v>
       </c>
@@ -18834,7 +18838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="934" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>22</v>
       </c>
@@ -18854,7 +18858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>22</v>
       </c>
@@ -18874,7 +18878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>22</v>
       </c>
@@ -18894,7 +18898,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>22</v>
       </c>
@@ -18914,7 +18918,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="938" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>22</v>
       </c>
@@ -18934,7 +18938,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="939" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>22</v>
       </c>
@@ -18954,7 +18958,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="940" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>22</v>
       </c>
@@ -18974,7 +18978,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="941" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>22</v>
       </c>
@@ -18994,7 +18998,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="942" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>22</v>
       </c>
@@ -19014,7 +19018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="943" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>22</v>
       </c>
@@ -19034,7 +19038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>22</v>
       </c>
@@ -19054,7 +19058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="945" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>22</v>
       </c>
@@ -19074,7 +19078,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="946" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>22</v>
       </c>
@@ -19094,7 +19098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="947" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>22</v>
       </c>
@@ -19114,7 +19118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="948" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>22</v>
       </c>
@@ -19134,7 +19138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="949" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>22</v>
       </c>
@@ -19154,7 +19158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="950" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>22</v>
       </c>
@@ -19174,7 +19178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="951" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>23</v>
       </c>
@@ -19188,7 +19192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>23</v>
       </c>
@@ -19202,7 +19206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="953" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>23</v>
       </c>
@@ -19216,7 +19220,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="954" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>23</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="955" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>23</v>
       </c>
@@ -19250,7 +19254,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="956" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>23</v>
       </c>
@@ -19267,7 +19271,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>23</v>
       </c>
@@ -19284,7 +19288,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>23</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>23</v>
       </c>
@@ -19324,7 +19328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="960" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>23</v>
       </c>
@@ -19344,7 +19348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>23</v>
       </c>
@@ -19364,7 +19368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="962" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>23</v>
       </c>
@@ -19384,7 +19388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="963" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>23</v>
       </c>
@@ -19404,7 +19408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="964" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>23</v>
       </c>
@@ -19424,7 +19428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="965" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>23</v>
       </c>
@@ -19444,7 +19448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>23</v>
       </c>
@@ -19464,7 +19468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="967" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>23</v>
       </c>
@@ -19484,7 +19488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="968" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>23</v>
       </c>
@@ -19504,7 +19508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="969" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>23</v>
       </c>
@@ -19524,7 +19528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="970" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>23</v>
       </c>
@@ -19544,7 +19548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="971" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>23</v>
       </c>
@@ -19564,7 +19568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>23</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="973" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>23</v>
       </c>
@@ -19604,7 +19608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>23</v>
       </c>
@@ -19624,7 +19628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="975" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>23</v>
       </c>
@@ -19644,7 +19648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="976" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>23</v>
       </c>
@@ -19664,7 +19668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>23</v>
       </c>
@@ -19684,7 +19688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>23</v>
       </c>
@@ -19704,7 +19708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="979" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>23</v>
       </c>
@@ -19724,7 +19728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>23</v>
       </c>
@@ -19744,7 +19748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>23</v>
       </c>
@@ -19764,7 +19768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>23</v>
       </c>
@@ -19784,7 +19788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>23</v>
       </c>
@@ -19804,7 +19808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="984" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>23</v>
       </c>
@@ -19824,7 +19828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>23</v>
       </c>
@@ -19844,7 +19848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>23</v>
       </c>
@@ -19864,7 +19868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>23</v>
       </c>
@@ -19884,7 +19888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="988" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>23</v>
       </c>
@@ -19904,7 +19908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>23</v>
       </c>
@@ -19924,7 +19928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>23</v>
       </c>
@@ -19944,7 +19948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="991" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>23</v>
       </c>
@@ -19964,7 +19968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>23</v>
       </c>
@@ -19984,7 +19988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>23</v>
       </c>
@@ -20004,7 +20008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="994" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>23</v>
       </c>
@@ -20024,7 +20028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="995" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>23</v>
       </c>
@@ -20044,7 +20048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>23</v>
       </c>
@@ -20064,7 +20068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>23</v>
       </c>
@@ -20084,7 +20088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>23</v>
       </c>
@@ -20104,7 +20108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>23</v>
       </c>
@@ -20124,7 +20128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>23</v>
       </c>
@@ -20144,7 +20148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>23</v>
       </c>
@@ -20164,7 +20168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>23</v>
       </c>
@@ -20184,7 +20188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>23</v>
       </c>
@@ -20204,7 +20208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>23</v>
       </c>
@@ -20224,7 +20228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>23</v>
       </c>
@@ -20244,7 +20248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>23</v>
       </c>
@@ -20264,7 +20268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>23</v>
       </c>
@@ -20284,7 +20288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>23</v>
       </c>
@@ -20304,7 +20308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>23</v>
       </c>
@@ -20324,7 +20328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>23</v>
       </c>
@@ -20344,7 +20348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>23</v>
       </c>
@@ -20364,7 +20368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>23</v>
       </c>
@@ -20384,7 +20388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>23</v>
       </c>
@@ -20404,7 +20408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>23</v>
       </c>
@@ -20424,7 +20428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>23</v>
       </c>
@@ -20444,7 +20448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>23</v>
       </c>
@@ -20464,7 +20468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>23</v>
       </c>
@@ -20484,7 +20488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>23</v>
       </c>
@@ -20504,7 +20508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>23</v>
       </c>
@@ -20524,7 +20528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>23</v>
       </c>
@@ -20544,7 +20548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>23</v>
       </c>
@@ -20564,7 +20568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>23</v>
       </c>
@@ -20584,7 +20588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>23</v>
       </c>
@@ -20604,7 +20608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>23</v>
       </c>
@@ -20624,7 +20628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>23</v>
       </c>
@@ -20644,7 +20648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>23</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>23</v>
       </c>
@@ -20684,7 +20688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>23</v>
       </c>
@@ -20704,7 +20708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>23</v>
       </c>
@@ -20724,7 +20728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>23</v>
       </c>
@@ -20744,7 +20748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>23</v>
       </c>
@@ -20764,7 +20768,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>23</v>
       </c>
@@ -20784,7 +20788,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>23</v>
       </c>
@@ -20804,7 +20808,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>23</v>
       </c>
@@ -20824,7 +20828,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>23</v>
       </c>
@@ -20844,7 +20848,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>23</v>
       </c>
@@ -20864,7 +20868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>23</v>
       </c>
@@ -20884,7 +20888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>23</v>
       </c>
@@ -20904,7 +20908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>23</v>
       </c>
@@ -20924,7 +20928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>23</v>
       </c>
@@ -20944,7 +20948,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>23</v>
       </c>
@@ -20964,7 +20968,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>23</v>
       </c>
@@ -20984,7 +20988,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>23</v>
       </c>
@@ -21004,7 +21008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>23</v>
       </c>
@@ -21024,7 +21028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>23</v>
       </c>
@@ -21044,7 +21048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>23</v>
       </c>
@@ -21064,7 +21068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>23</v>
       </c>
@@ -21084,7 +21088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>23</v>
       </c>
@@ -21104,7 +21108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>23</v>
       </c>
@@ -21124,7 +21128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>23</v>
       </c>
@@ -27617,6 +27621,9 @@
   <autoFilter ref="A1:F1382" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
+        <filter val="Cleartrip"/>
+        <filter val="Skyscanner"/>
+        <filter val="TCOM"/>
         <filter val="Travelocity"/>
       </filters>
     </filterColumn>

--- a/bubble-video/formatted_data.xlsx
+++ b/bubble-video/formatted_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/Files/000_Archive/TravelMarketViz/bubble-video/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FFC65FC0D0E169F172170B557353052D6C88EFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96387D43-75A6-B04F-9E9A-189E0DF67BAC}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_FFC65FC0D0E169F172170B557353052D6C88EFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC90DA52-6267-134B-88AB-14D9E127CEDE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:F1382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I808" sqref="I808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -869,7 +869,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -883,7 +883,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -897,7 +897,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -931,7 +931,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -948,7 +948,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -965,7 +965,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -985,7 +985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>20</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>20</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>20</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>20</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>20</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>20</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>20</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>20</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>20</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>20</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>20</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>20</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>20</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>20</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>20</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>20</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>20</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>20</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>20</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>20</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>20</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>20</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>20</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>20</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>20</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>20</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>20</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>20</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>20</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>20</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>20</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>20</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>20</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>20</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>20</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>20</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>20</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>20</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>20</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>20</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>20</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>20</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>20</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>20</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>20</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>20</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>20</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>20</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>20</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>20</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>20</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>20</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>22</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>22</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>22</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>22</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>22</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>22</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>22</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>22</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>22</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>22</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>22</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>22</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>22</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>22</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>22</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>22</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>22</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>22</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>22</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>22</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>22</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>22</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>22</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>22</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>22</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>22</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>22</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>22</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>22</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>22</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>22</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>22</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>22</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>22</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>22</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>22</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>22</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>22</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>22</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>22</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>22</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>22</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>22</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>22</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>23</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>23</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>23</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>23</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>23</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>23</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>23</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>23</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>23</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>23</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>23</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>23</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>23</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>23</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>23</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>23</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>23</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>23</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>23</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>23</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>23</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>23</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>23</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>23</v>
       </c>
@@ -19628,7 +19628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>23</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>23</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>23</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>23</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>23</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>23</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>23</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>23</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>23</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>23</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>23</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>23</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>23</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>23</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>23</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>23</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>23</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>23</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>23</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>23</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>23</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>23</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>23</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>23</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>23</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>23</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>23</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>23</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>23</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>23</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>23</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>23</v>
       </c>
@@ -20268,7 +20268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>23</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>23</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>23</v>
       </c>
@@ -20328,7 +20328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>23</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>23</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>23</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>23</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>23</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>23</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>23</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>23</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>23</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>23</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>23</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>23</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>23</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>23</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>23</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>23</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>23</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>23</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>23</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>23</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>23</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>23</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>23</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>23</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>23</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>23</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>23</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>23</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>23</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>23</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>23</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>23</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>23</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>23</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>23</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>23</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>23</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>23</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>23</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>23</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>23</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>26</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>26</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>26</v>
       </c>
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>26</v>
       </c>
@@ -23304,7 +23304,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>26</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>26</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>26</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>26</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>26</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>26</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>26</v>
       </c>
@@ -23444,7 +23444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>26</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>26</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>26</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>26</v>
       </c>
@@ -23524,7 +23524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>26</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>26</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>26</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>26</v>
       </c>
@@ -23604,7 +23604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>26</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>26</v>
       </c>
@@ -23641,7 +23641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>26</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>26</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
         <v>28</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="1215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
         <v>28</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
         <v>28</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
         <v>28</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
         <v>28</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
         <v>28</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
         <v>28</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
         <v>28</v>
       </c>
@@ -24439,7 +24439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
         <v>28</v>
       </c>
@@ -24459,7 +24459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
         <v>28</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
         <v>28</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
         <v>28</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
         <v>28</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
         <v>28</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
         <v>28</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
         <v>28</v>
       </c>
@@ -24599,7 +24599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
         <v>28</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
         <v>28</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
         <v>28</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
         <v>28</v>
       </c>
@@ -24679,7 +24679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
         <v>28</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
         <v>28</v>
       </c>
@@ -24719,7 +24719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
         <v>28</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
         <v>28</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
         <v>28</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
         <v>28</v>
       </c>
@@ -24799,7 +24799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
         <v>28</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
         <v>28</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
         <v>28</v>
       </c>
@@ -24859,7 +24859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
         <v>28</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
         <v>28</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
         <v>28</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>28</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
         <v>28</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
         <v>28</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
         <v>28</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
         <v>28</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
         <v>28</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
         <v>28</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
         <v>28</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
         <v>28</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
         <v>28</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
         <v>28</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
         <v>28</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
         <v>28</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
         <v>28</v>
       </c>
@@ -25199,7 +25199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
         <v>28</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
         <v>28</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
         <v>28</v>
       </c>
@@ -25259,7 +25259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
         <v>28</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
         <v>28</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>28</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>28</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>28</v>
       </c>
@@ -25359,7 +25359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
         <v>28</v>
       </c>
@@ -25379,7 +25379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
         <v>28</v>
       </c>
@@ -25399,7 +25399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>28</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>28</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="1272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
         <v>28</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
         <v>28</v>
       </c>
@@ -25479,7 +25479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>28</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>28</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>28</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>28</v>
       </c>
@@ -25559,7 +25559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
         <v>28</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
         <v>28</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
         <v>28</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
         <v>28</v>
       </c>
@@ -25639,7 +25639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
         <v>28</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
         <v>28</v>
       </c>
@@ -25679,7 +25679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
         <v>28</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
         <v>28</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
         <v>28</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
         <v>28</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
         <v>28</v>
       </c>
@@ -25779,7 +25779,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
         <v>28</v>
       </c>
@@ -25799,7 +25799,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="1290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
         <v>28</v>
       </c>
@@ -25819,7 +25819,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="1291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
         <v>28</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="1292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
         <v>28</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
         <v>28</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
         <v>28</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
         <v>28</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
         <v>28</v>
       </c>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
         <v>28</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
         <v>28</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
         <v>28</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>28</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>28</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
         <v>28</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
         <v>28</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>28</v>
       </c>
@@ -26099,7 +26099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
         <v>28</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>28</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>29</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
         <v>29</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
         <v>29</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
         <v>29</v>
       </c>
@@ -26207,7 +26207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
         <v>29</v>
       </c>
@@ -26227,7 +26227,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="1312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>29</v>
       </c>
@@ -26247,7 +26247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>29</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
         <v>29</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>29</v>
       </c>
@@ -26307,7 +26307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
         <v>29</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
         <v>29</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>29</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>29</v>
       </c>
@@ -26387,7 +26387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
         <v>29</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
         <v>29</v>
       </c>
@@ -26427,7 +26427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
         <v>29</v>
       </c>
@@ -27621,10 +27621,11 @@
   <autoFilter ref="A1:F1382" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Cleartrip"/>
-        <filter val="Skyscanner"/>
-        <filter val="TCOM"/>
-        <filter val="Travelocity"/>
+        <filter val="ABNB"/>
+        <filter val="BKNG"/>
+        <filter val="Orbitz"/>
+        <filter val="Webjet"/>
+        <filter val="Webjet OTA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/bubble-video/formatted_data.xlsx
+++ b/bubble-video/formatted_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/Files/000_Archive/TravelMarketViz/bubble-video/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_FFC65FC0D0E169F172170B557353052D6C88EFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC90DA52-6267-134B-88AB-14D9E127CEDE}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_FFC65FC0D0E169F172170B557353052D6C88EFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F47E743-9085-174B-9824-E379FACE2F55}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,11 +829,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I808" sqref="I808"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="228" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -855,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -869,7 +873,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -883,7 +887,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -897,7 +901,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -914,7 +918,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -931,7 +935,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -948,7 +952,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -965,7 +969,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -985,7 +989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +2069,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>-47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3358,7 +3362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -3558,7 +3562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -3978,7 +3982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -4058,7 +4062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -4158,7 +4162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -6545,7 +6549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -6559,7 +6563,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>12</v>
       </c>
@@ -6587,7 +6591,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -6618,7 +6622,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>12</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -6669,7 +6673,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>12</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -6800,7 +6804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>12</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>12</v>
       </c>
@@ -6940,7 +6944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>12</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>12</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>12</v>
       </c>
@@ -7060,7 +7064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>12</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>12</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -7340,7 +7344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -7440,7 +7444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -7500,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>12</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>12</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>12</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>12</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>12</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>12</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>12</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -7780,7 +7784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>12</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>12</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>12</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>12</v>
       </c>
@@ -7860,7 +7864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>12</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>12</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>12</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -8220,7 +8224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -8300,7 +8304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -8380,7 +8384,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -8400,7 +8404,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -8420,7 +8424,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>12</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>12</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -8640,7 +8644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -8700,7 +8704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -16146,7 +16150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>20</v>
       </c>
@@ -16163,7 +16167,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>20</v>
       </c>
@@ -16180,7 +16184,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>20</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>20</v>
       </c>
@@ -16214,7 +16218,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>20</v>
       </c>
@@ -16234,7 +16238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>20</v>
       </c>
@@ -16254,7 +16258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>20</v>
       </c>
@@ -16274,7 +16278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>20</v>
       </c>
@@ -16294,7 +16298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>20</v>
       </c>
@@ -16314,7 +16318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>20</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>20</v>
       </c>
@@ -16354,7 +16358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>20</v>
       </c>
@@ -16374,7 +16378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>20</v>
       </c>
@@ -16394,7 +16398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>20</v>
       </c>
@@ -16414,7 +16418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>20</v>
       </c>
@@ -16434,7 +16438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>20</v>
       </c>
@@ -16451,7 +16455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>20</v>
       </c>
@@ -16468,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>20</v>
       </c>
@@ -16485,7 +16489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>20</v>
       </c>
@@ -16502,7 +16506,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>20</v>
       </c>
@@ -16519,7 +16523,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>20</v>
       </c>
@@ -16536,7 +16540,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>20</v>
       </c>
@@ -16553,7 +16557,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>20</v>
       </c>
@@ -16573,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>20</v>
       </c>
@@ -16593,7 +16597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>20</v>
       </c>
@@ -16613,7 +16617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>20</v>
       </c>
@@ -16633,7 +16637,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>20</v>
       </c>
@@ -16653,7 +16657,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>20</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>20</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>20</v>
       </c>
@@ -16713,7 +16717,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>20</v>
       </c>
@@ -16733,7 +16737,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>20</v>
       </c>
@@ -16753,7 +16757,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>20</v>
       </c>
@@ -16773,7 +16777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>20</v>
       </c>
@@ -16793,7 +16797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>20</v>
       </c>
@@ -16813,7 +16817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>20</v>
       </c>
@@ -16833,7 +16837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>20</v>
       </c>
@@ -16853,7 +16857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>20</v>
       </c>
@@ -16873,7 +16877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>20</v>
       </c>
@@ -16893,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>20</v>
       </c>
@@ -16913,7 +16917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>20</v>
       </c>
@@ -16933,7 +16937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>20</v>
       </c>
@@ -16953,7 +16957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>20</v>
       </c>
@@ -16973,7 +16977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>20</v>
       </c>
@@ -16993,7 +16997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>20</v>
       </c>
@@ -17013,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>20</v>
       </c>
@@ -17033,7 +17037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>20</v>
       </c>
@@ -17053,7 +17057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>20</v>
       </c>
@@ -17073,7 +17077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>20</v>
       </c>
@@ -17093,7 +17097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>20</v>
       </c>
@@ -17110,7 +17114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>20</v>
       </c>
@@ -17127,7 +17131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>20</v>
       </c>
@@ -24300,7 +24304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
         <v>28</v>
       </c>
@@ -24314,7 +24318,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
         <v>28</v>
       </c>
@@ -24331,7 +24335,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
         <v>28</v>
       </c>
@@ -24348,7 +24352,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
         <v>28</v>
       </c>
@@ -24365,7 +24369,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
         <v>28</v>
       </c>
@@ -24382,7 +24386,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
         <v>28</v>
       </c>
@@ -24399,7 +24403,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
         <v>28</v>
       </c>
@@ -24419,7 +24423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
         <v>28</v>
       </c>
@@ -24439,7 +24443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
         <v>28</v>
       </c>
@@ -24459,7 +24463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
         <v>28</v>
       </c>
@@ -24479,7 +24483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
         <v>28</v>
       </c>
@@ -24499,7 +24503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
         <v>28</v>
       </c>
@@ -24519,7 +24523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
         <v>28</v>
       </c>
@@ -24539,7 +24543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
         <v>28</v>
       </c>
@@ -24559,7 +24563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
         <v>28</v>
       </c>
@@ -24579,7 +24583,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
         <v>28</v>
       </c>
@@ -24599,7 +24603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
         <v>28</v>
       </c>
@@ -24619,7 +24623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
         <v>28</v>
       </c>
@@ -24639,7 +24643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
         <v>28</v>
       </c>
@@ -24659,7 +24663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
         <v>28</v>
       </c>
@@ -24679,7 +24683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
         <v>28</v>
       </c>
@@ -24699,7 +24703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
         <v>28</v>
       </c>
@@ -24719,7 +24723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
         <v>28</v>
       </c>
@@ -24739,7 +24743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
         <v>28</v>
       </c>
@@ -24759,7 +24763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
         <v>28</v>
       </c>
@@ -24779,7 +24783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
         <v>28</v>
       </c>
@@ -24799,7 +24803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
         <v>28</v>
       </c>
@@ -24819,7 +24823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
         <v>28</v>
       </c>
@@ -24839,7 +24843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
         <v>28</v>
       </c>
@@ -24859,7 +24863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
         <v>28</v>
       </c>
@@ -24879,7 +24883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
         <v>28</v>
       </c>
@@ -24899,7 +24903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
         <v>28</v>
       </c>
@@ -24919,7 +24923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>28</v>
       </c>
@@ -24939,7 +24943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
         <v>28</v>
       </c>
@@ -24959,7 +24963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
         <v>28</v>
       </c>
@@ -24979,7 +24983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
         <v>28</v>
       </c>
@@ -24999,7 +25003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
         <v>28</v>
       </c>
@@ -25019,7 +25023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
         <v>28</v>
       </c>
@@ -25039,7 +25043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
         <v>28</v>
       </c>
@@ -25059,7 +25063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
         <v>28</v>
       </c>
@@ -25079,7 +25083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
         <v>28</v>
       </c>
@@ -25099,7 +25103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
         <v>28</v>
       </c>
@@ -25119,7 +25123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
         <v>28</v>
       </c>
@@ -25139,7 +25143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
         <v>28</v>
       </c>
@@ -25159,7 +25163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
         <v>28</v>
       </c>
@@ -25179,7 +25183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
         <v>28</v>
       </c>
@@ -25199,7 +25203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
         <v>28</v>
       </c>
@@ -25219,7 +25223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
         <v>28</v>
       </c>
@@ -25239,7 +25243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
         <v>28</v>
       </c>
@@ -25259,7 +25263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
         <v>28</v>
       </c>
@@ -25279,7 +25283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
         <v>28</v>
       </c>
@@ -25299,7 +25303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>28</v>
       </c>
@@ -25319,7 +25323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>28</v>
       </c>
@@ -25339,7 +25343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>28</v>
       </c>
@@ -25359,7 +25363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
         <v>28</v>
       </c>
@@ -25379,7 +25383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
         <v>28</v>
       </c>
@@ -25399,7 +25403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>28</v>
       </c>
@@ -25419,7 +25423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>28</v>
       </c>
@@ -25439,7 +25443,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
         <v>28</v>
       </c>
@@ -25459,7 +25463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
         <v>28</v>
       </c>
@@ -25479,7 +25483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>28</v>
       </c>
@@ -25499,7 +25503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>28</v>
       </c>
@@ -25519,7 +25523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>28</v>
       </c>
@@ -25539,7 +25543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>28</v>
       </c>
@@ -25559,7 +25563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
         <v>28</v>
       </c>
@@ -25579,7 +25583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
         <v>28</v>
       </c>
@@ -25599,7 +25603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
         <v>28</v>
       </c>
@@ -25619,7 +25623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
         <v>28</v>
       </c>
@@ -25639,7 +25643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
         <v>28</v>
       </c>
@@ -25659,7 +25663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
         <v>28</v>
       </c>
@@ -25679,7 +25683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
         <v>28</v>
       </c>
@@ -25699,7 +25703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
         <v>28</v>
       </c>
@@ -25719,7 +25723,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
         <v>28</v>
       </c>
@@ -25739,7 +25743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
         <v>28</v>
       </c>
@@ -25759,7 +25763,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
         <v>28</v>
       </c>
@@ -25779,7 +25783,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
         <v>28</v>
       </c>
@@ -25799,7 +25803,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
         <v>28</v>
       </c>
@@ -25819,7 +25823,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
         <v>28</v>
       </c>
@@ -25839,7 +25843,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
         <v>28</v>
       </c>
@@ -25859,7 +25863,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
         <v>28</v>
       </c>
@@ -25879,7 +25883,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
         <v>28</v>
       </c>
@@ -25899,7 +25903,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
         <v>28</v>
       </c>
@@ -25919,7 +25923,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
         <v>28</v>
       </c>
@@ -25939,7 +25943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
         <v>28</v>
       </c>
@@ -25959,7 +25963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
         <v>28</v>
       </c>
@@ -25979,7 +25983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
         <v>28</v>
       </c>
@@ -25999,7 +26003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>28</v>
       </c>
@@ -26019,7 +26023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>28</v>
       </c>
@@ -26039,7 +26043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
         <v>28</v>
       </c>
@@ -26059,7 +26063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
         <v>28</v>
       </c>
@@ -26079,7 +26083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>28</v>
       </c>
@@ -26099,7 +26103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
         <v>28</v>
       </c>
@@ -26119,7 +26123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>28</v>
       </c>
@@ -26139,7 +26143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>29</v>
       </c>
@@ -26156,7 +26160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
         <v>29</v>
       </c>
@@ -26173,7 +26177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
         <v>29</v>
       </c>
@@ -26190,7 +26194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
         <v>29</v>
       </c>
@@ -26207,7 +26211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
         <v>29</v>
       </c>
@@ -26227,7 +26231,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="1312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>29</v>
       </c>
@@ -26247,7 +26251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>29</v>
       </c>
@@ -26267,7 +26271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
         <v>29</v>
       </c>
@@ -26287,7 +26291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>29</v>
       </c>
@@ -26307,7 +26311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
         <v>29</v>
       </c>
@@ -26327,7 +26331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
         <v>29</v>
       </c>
@@ -26347,7 +26351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>29</v>
       </c>
@@ -26367,7 +26371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>29</v>
       </c>
@@ -26387,7 +26391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
         <v>29</v>
       </c>
@@ -26407,7 +26411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
         <v>29</v>
       </c>
@@ -26427,7 +26431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
         <v>29</v>
       </c>
@@ -27621,11 +27625,7 @@
   <autoFilter ref="A1:F1382" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="ABNB"/>
-        <filter val="BKNG"/>
-        <filter val="Orbitz"/>
-        <filter val="Webjet"/>
-        <filter val="Webjet OTA"/>
+        <filter val="EXPE"/>
       </filters>
     </filterColumn>
   </autoFilter>
